--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>nice</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
@@ -121,13 +133,13 @@
     <t>save</t>
   </si>
   <si>
-    <t>join</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -136,25 +148,28 @@
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -512,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
@@ -581,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -681,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4074074074074074</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -781,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.374031007751938</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2416107382550336</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,71 +864,119 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>331</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>0.814621409921671</v>
+      </c>
+      <c r="L8">
+        <v>312</v>
+      </c>
+      <c r="M8">
+        <v>312</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>114</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L9">
+        <v>85</v>
+      </c>
+      <c r="M9">
+        <v>85</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.007085346215780998</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0.08</v>
+      </c>
+      <c r="F10">
+        <v>0.92</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3083</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.795774647887324</v>
+      </c>
+      <c r="L10">
         <v>113</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L8">
-        <v>28</v>
-      </c>
-      <c r="M8">
-        <v>28</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="L9">
-        <v>88</v>
-      </c>
-      <c r="M9">
-        <v>88</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L10">
-        <v>21</v>
-      </c>
       <c r="M10">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -951,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -977,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1003,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1029,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1055,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1081,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1107,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7421875</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1133,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1159,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1185,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1211,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6571428571428571</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1242,16 +1305,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1263,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6264705882352941</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1289,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1315,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5941422594142259</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L26">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1341,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
         <v>39</v>
       </c>
-      <c r="K27">
-        <v>0.5864406779661017</v>
-      </c>
-      <c r="L27">
-        <v>173</v>
-      </c>
       <c r="M27">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1367,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5857142857142857</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1393,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1419,47 +1482,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L30">
+        <v>52</v>
+      </c>
+      <c r="M30">
+        <v>52</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>42</v>
-      </c>
-      <c r="K30">
-        <v>0.5212765957446809</v>
-      </c>
-      <c r="L30">
-        <v>49</v>
-      </c>
-      <c r="M30">
-        <v>49</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5168539325842697</v>
+        <v>0.55</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1471,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1497,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3205128205128205</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1523,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.273972602739726</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1549,7 +1612,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
